--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.85038229164661</v>
+        <v>4.004809333333333</v>
       </c>
       <c r="H2">
-        <v>2.85038229164661</v>
+        <v>12.014428</v>
       </c>
       <c r="I2">
-        <v>0.03177398830664951</v>
+        <v>0.04337108182100274</v>
       </c>
       <c r="J2">
-        <v>0.03177398830664951</v>
+        <v>0.04337108182100273</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N2">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O2">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P2">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q2">
-        <v>122.1611351958351</v>
+        <v>171.8432207131973</v>
       </c>
       <c r="R2">
-        <v>122.1611351958351</v>
+        <v>1546.588986418776</v>
       </c>
       <c r="S2">
-        <v>0.00779395934177632</v>
+        <v>0.01050719850219196</v>
       </c>
       <c r="T2">
-        <v>0.00779395934177632</v>
+        <v>0.01050719850219196</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.85038229164661</v>
+        <v>4.004809333333333</v>
       </c>
       <c r="H3">
-        <v>2.85038229164661</v>
+        <v>12.014428</v>
       </c>
       <c r="I3">
-        <v>0.03177398830664951</v>
+        <v>0.04337108182100274</v>
       </c>
       <c r="J3">
-        <v>0.03177398830664951</v>
+        <v>0.04337108182100273</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N3">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O3">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P3">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q3">
-        <v>152.0948572248564</v>
+        <v>213.7024997470222</v>
       </c>
       <c r="R3">
-        <v>152.0948572248564</v>
+        <v>1923.3224977232</v>
       </c>
       <c r="S3">
-        <v>0.009703750144458545</v>
+        <v>0.0130666463066596</v>
       </c>
       <c r="T3">
-        <v>0.009703750144458545</v>
+        <v>0.01306664630665959</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.85038229164661</v>
+        <v>4.004809333333333</v>
       </c>
       <c r="H4">
-        <v>2.85038229164661</v>
+        <v>12.014428</v>
       </c>
       <c r="I4">
-        <v>0.03177398830664951</v>
+        <v>0.04337108182100274</v>
       </c>
       <c r="J4">
-        <v>0.03177398830664951</v>
+        <v>0.04337108182100273</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N4">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O4">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P4">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q4">
-        <v>111.4423908779139</v>
+        <v>160.1197434462004</v>
       </c>
       <c r="R4">
-        <v>111.4423908779139</v>
+        <v>1441.077691015804</v>
       </c>
       <c r="S4">
-        <v>0.00711009652996756</v>
+        <v>0.009790377074677763</v>
       </c>
       <c r="T4">
-        <v>0.00711009652996756</v>
+        <v>0.009790377074677762</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.85038229164661</v>
+        <v>4.004809333333333</v>
       </c>
       <c r="H5">
-        <v>2.85038229164661</v>
+        <v>12.014428</v>
       </c>
       <c r="I5">
-        <v>0.03177398830664951</v>
+        <v>0.04337108182100274</v>
       </c>
       <c r="J5">
-        <v>0.03177398830664951</v>
+        <v>0.04337108182100273</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N5">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O5">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P5">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q5">
-        <v>94.73402798437699</v>
+        <v>137.7312373250871</v>
       </c>
       <c r="R5">
-        <v>94.73402798437699</v>
+        <v>1239.581135925784</v>
       </c>
       <c r="S5">
-        <v>0.006044092183731665</v>
+        <v>0.008421452091744112</v>
       </c>
       <c r="T5">
-        <v>0.006044092183731665</v>
+        <v>0.00842145209174411</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.85038229164661</v>
+        <v>4.004809333333333</v>
       </c>
       <c r="H6">
-        <v>2.85038229164661</v>
+        <v>12.014428</v>
       </c>
       <c r="I6">
-        <v>0.03177398830664951</v>
+        <v>0.04337108182100274</v>
       </c>
       <c r="J6">
-        <v>0.03177398830664951</v>
+        <v>0.04337108182100273</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N6">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O6">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P6">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q6">
-        <v>17.5874411473554</v>
+        <v>25.92904191324267</v>
       </c>
       <c r="R6">
-        <v>17.5874411473554</v>
+        <v>233.361377219184</v>
       </c>
       <c r="S6">
-        <v>0.001122090106715423</v>
+        <v>0.001585407845729306</v>
       </c>
       <c r="T6">
-        <v>0.001122090106715423</v>
+        <v>0.001585407845729306</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>64.69495374097779</v>
+        <v>64.80903633333334</v>
       </c>
       <c r="H7">
-        <v>64.69495374097779</v>
+        <v>194.427109</v>
       </c>
       <c r="I7">
-        <v>0.7211722826405752</v>
+        <v>0.7018656279483316</v>
       </c>
       <c r="J7">
-        <v>0.7211722826405752</v>
+        <v>0.7018656279483316</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N7">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O7">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P7">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q7">
-        <v>2772.68386545945</v>
+        <v>2780.904809160776</v>
       </c>
       <c r="R7">
-        <v>2772.68386545945</v>
+        <v>25028.14328244698</v>
       </c>
       <c r="S7">
-        <v>0.1768990217743729</v>
+        <v>0.1700359125270311</v>
       </c>
       <c r="T7">
-        <v>0.1768990217743729</v>
+        <v>0.1700359125270311</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>64.69495374097779</v>
+        <v>64.80903633333334</v>
       </c>
       <c r="H8">
-        <v>64.69495374097779</v>
+        <v>194.427109</v>
       </c>
       <c r="I8">
-        <v>0.7211722826405752</v>
+        <v>0.7018656279483316</v>
       </c>
       <c r="J8">
-        <v>0.7211722826405752</v>
+        <v>0.7018656279483316</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N8">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O8">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P8">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q8">
-        <v>3452.087736174667</v>
+        <v>3458.305231999956</v>
       </c>
       <c r="R8">
-        <v>3452.087736174667</v>
+        <v>31124.7470879996</v>
       </c>
       <c r="S8">
-        <v>0.2202454276219537</v>
+        <v>0.2114549494765255</v>
       </c>
       <c r="T8">
-        <v>0.2202454276219537</v>
+        <v>0.2114549494765255</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>64.69495374097779</v>
+        <v>64.80903633333334</v>
       </c>
       <c r="H9">
-        <v>64.69495374097779</v>
+        <v>194.427109</v>
       </c>
       <c r="I9">
-        <v>0.7211722826405752</v>
+        <v>0.7018656279483316</v>
       </c>
       <c r="J9">
-        <v>0.7211722826405752</v>
+        <v>0.7018656279483316</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N9">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O9">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P9">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q9">
-        <v>2529.401176733269</v>
+        <v>2591.186098253404</v>
       </c>
       <c r="R9">
-        <v>2529.401176733269</v>
+        <v>23320.67488428064</v>
       </c>
       <c r="S9">
-        <v>0.1613774290726498</v>
+        <v>0.1584357333240896</v>
       </c>
       <c r="T9">
-        <v>0.1613774290726498</v>
+        <v>0.1584357333240896</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>64.69495374097779</v>
+        <v>64.80903633333334</v>
       </c>
       <c r="H10">
-        <v>64.69495374097779</v>
+        <v>194.427109</v>
       </c>
       <c r="I10">
-        <v>0.7211722826405752</v>
+        <v>0.7018656279483316</v>
       </c>
       <c r="J10">
-        <v>0.7211722826405752</v>
+        <v>0.7018656279483316</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N10">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O10">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P10">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q10">
-        <v>2150.172479006411</v>
+        <v>2228.877337490356</v>
       </c>
       <c r="R10">
-        <v>2150.172479006411</v>
+        <v>20059.8960374132</v>
       </c>
       <c r="S10">
-        <v>0.1371823931753518</v>
+        <v>0.1362826914256601</v>
       </c>
       <c r="T10">
-        <v>0.1371823931753518</v>
+        <v>0.1362826914256601</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>64.69495374097779</v>
+        <v>64.80903633333334</v>
       </c>
       <c r="H11">
-        <v>64.69495374097779</v>
+        <v>194.427109</v>
       </c>
       <c r="I11">
-        <v>0.7211722826405752</v>
+        <v>0.7018656279483316</v>
       </c>
       <c r="J11">
-        <v>0.7211722826405752</v>
+        <v>0.7018656279483316</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N11">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O11">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P11">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q11">
-        <v>399.1810834584688</v>
+        <v>419.6045503232947</v>
       </c>
       <c r="R11">
-        <v>399.1810834584688</v>
+        <v>3776.440952909652</v>
       </c>
       <c r="S11">
-        <v>0.02546801099624683</v>
+        <v>0.02565634119502544</v>
       </c>
       <c r="T11">
-        <v>0.02546801099624683</v>
+        <v>0.02565634119502544</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.44446657870606</v>
+        <v>5.472599666666667</v>
       </c>
       <c r="H12">
-        <v>5.44446657870606</v>
+        <v>16.417799</v>
       </c>
       <c r="I12">
-        <v>0.06069095289944988</v>
+        <v>0.05926688342963785</v>
       </c>
       <c r="J12">
-        <v>0.06069095289944988</v>
+        <v>0.05926688342963785</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N12">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O12">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P12">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q12">
-        <v>233.3378998808965</v>
+        <v>234.8249502333287</v>
       </c>
       <c r="R12">
-        <v>233.3378998808965</v>
+        <v>2113.424552099958</v>
       </c>
       <c r="S12">
-        <v>0.01488710874904495</v>
+        <v>0.01435815946144824</v>
       </c>
       <c r="T12">
-        <v>0.01488710874904495</v>
+        <v>0.01435815946144824</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.44446657870606</v>
+        <v>5.472599666666667</v>
       </c>
       <c r="H13">
-        <v>5.44446657870606</v>
+        <v>16.417799</v>
       </c>
       <c r="I13">
-        <v>0.06069095289944988</v>
+        <v>0.05926688342963785</v>
       </c>
       <c r="J13">
-        <v>0.06069095289944988</v>
+        <v>0.05926688342963785</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N13">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O13">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P13">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q13">
-        <v>290.5137915642317</v>
+        <v>292.0259446928445</v>
       </c>
       <c r="R13">
-        <v>290.5137915642317</v>
+        <v>2628.233502235601</v>
       </c>
       <c r="S13">
-        <v>0.01853496757415609</v>
+        <v>0.01785566259723972</v>
       </c>
       <c r="T13">
-        <v>0.01853496757415609</v>
+        <v>0.01785566259723972</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.44446657870606</v>
+        <v>5.472599666666667</v>
       </c>
       <c r="H14">
-        <v>5.44446657870606</v>
+        <v>16.417799</v>
       </c>
       <c r="I14">
-        <v>0.06069095289944988</v>
+        <v>0.05926688342963785</v>
       </c>
       <c r="J14">
-        <v>0.06069095289944988</v>
+        <v>0.05926688342963785</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N14">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O14">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P14">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q14">
-        <v>212.8642092550312</v>
+        <v>218.8047374233119</v>
       </c>
       <c r="R14">
-        <v>212.8642092550312</v>
+        <v>1969.242636809807</v>
       </c>
       <c r="S14">
-        <v>0.01358087406107898</v>
+        <v>0.0133786180204557</v>
       </c>
       <c r="T14">
-        <v>0.01358087406107898</v>
+        <v>0.0133786180204557</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.44446657870606</v>
+        <v>5.472599666666667</v>
       </c>
       <c r="H15">
-        <v>5.44446657870606</v>
+        <v>16.417799</v>
       </c>
       <c r="I15">
-        <v>0.06069095289944988</v>
+        <v>0.05926688342963785</v>
       </c>
       <c r="J15">
-        <v>0.06069095289944988</v>
+        <v>0.05926688342963785</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N15">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O15">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P15">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q15">
-        <v>180.9498503897845</v>
+        <v>188.2106888837803</v>
       </c>
       <c r="R15">
-        <v>180.9498503897845</v>
+        <v>1693.896199954022</v>
       </c>
       <c r="S15">
-        <v>0.01154471734875111</v>
+        <v>0.01150797255852583</v>
       </c>
       <c r="T15">
-        <v>0.01154471734875111</v>
+        <v>0.01150797255852583</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.44446657870606</v>
+        <v>5.472599666666667</v>
       </c>
       <c r="H16">
-        <v>5.44446657870606</v>
+        <v>16.417799</v>
       </c>
       <c r="I16">
-        <v>0.06069095289944988</v>
+        <v>0.05926688342963785</v>
       </c>
       <c r="J16">
-        <v>0.06069095289944988</v>
+        <v>0.05926688342963785</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N16">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O16">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P16">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q16">
-        <v>33.59347123800046</v>
+        <v>35.43221519944134</v>
       </c>
       <c r="R16">
-        <v>33.59347123800046</v>
+        <v>318.8899367949721</v>
       </c>
       <c r="S16">
-        <v>0.002143285166418741</v>
+        <v>0.002166470791968354</v>
       </c>
       <c r="T16">
-        <v>0.002143285166418741</v>
+        <v>0.002166470791968354</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.62787076554791</v>
+        <v>4.689392000000001</v>
       </c>
       <c r="H17">
-        <v>4.62787076554791</v>
+        <v>14.068176</v>
       </c>
       <c r="I17">
-        <v>0.05158813679840078</v>
+        <v>0.05078494060376966</v>
       </c>
       <c r="J17">
-        <v>0.05158813679840078</v>
+        <v>0.05078494060376965</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N17">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O17">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P17">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q17">
-        <v>198.3403938186698</v>
+        <v>201.218124857888</v>
       </c>
       <c r="R17">
-        <v>198.3403938186698</v>
+        <v>1810.963123720992</v>
       </c>
       <c r="S17">
-        <v>0.01265424525383192</v>
+        <v>0.01230330048136898</v>
       </c>
       <c r="T17">
-        <v>0.01265424525383192</v>
+        <v>0.01230330048136897</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.62787076554791</v>
+        <v>4.689392000000001</v>
       </c>
       <c r="H18">
-        <v>4.62787076554791</v>
+        <v>14.068176</v>
       </c>
       <c r="I18">
-        <v>0.05158813679840078</v>
+        <v>0.05078494060376966</v>
       </c>
       <c r="J18">
-        <v>0.05158813679840078</v>
+        <v>0.05078494060376965</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N18">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O18">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P18">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q18">
-        <v>246.9406806953186</v>
+        <v>250.2328348949334</v>
       </c>
       <c r="R18">
-        <v>246.9406806953186</v>
+        <v>2252.095514054401</v>
       </c>
       <c r="S18">
-        <v>0.0157549749524225</v>
+        <v>0.01530026065093047</v>
       </c>
       <c r="T18">
-        <v>0.0157549749524225</v>
+        <v>0.01530026065093046</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.62787076554791</v>
+        <v>4.689392000000001</v>
       </c>
       <c r="H19">
-        <v>4.62787076554791</v>
+        <v>14.068176</v>
       </c>
       <c r="I19">
-        <v>0.05158813679840078</v>
+        <v>0.05078494060376966</v>
       </c>
       <c r="J19">
-        <v>0.05158813679840078</v>
+        <v>0.05078494060376965</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N19">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O19">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P19">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q19">
-        <v>180.9374778597602</v>
+        <v>187.4906347498187</v>
       </c>
       <c r="R19">
-        <v>180.9374778597602</v>
+        <v>1687.415712748368</v>
       </c>
       <c r="S19">
-        <v>0.01154392797334289</v>
+        <v>0.01146394549893944</v>
       </c>
       <c r="T19">
-        <v>0.01154392797334289</v>
+        <v>0.01146394549893943</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.62787076554791</v>
+        <v>4.689392000000001</v>
       </c>
       <c r="H20">
-        <v>4.62787076554791</v>
+        <v>14.068176</v>
       </c>
       <c r="I20">
-        <v>0.05158813679840078</v>
+        <v>0.05078494060376966</v>
       </c>
       <c r="J20">
-        <v>0.05158813679840078</v>
+        <v>0.05078494060376965</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N20">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O20">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P20">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q20">
-        <v>153.8098380334208</v>
+        <v>161.2750342660587</v>
       </c>
       <c r="R20">
-        <v>153.8098380334208</v>
+        <v>1451.475308394528</v>
       </c>
       <c r="S20">
-        <v>0.009813167027925205</v>
+        <v>0.009861016288268101</v>
       </c>
       <c r="T20">
-        <v>0.009813167027925205</v>
+        <v>0.009861016288268097</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.62787076554791</v>
+        <v>4.689392000000001</v>
       </c>
       <c r="H21">
-        <v>4.62787076554791</v>
+        <v>14.068176</v>
       </c>
       <c r="I21">
-        <v>0.05158813679840078</v>
+        <v>0.05078494060376966</v>
       </c>
       <c r="J21">
-        <v>0.05158813679840078</v>
+        <v>0.05078494060376965</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N21">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O21">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P21">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q21">
-        <v>28.55490821886269</v>
+        <v>30.361355958592</v>
       </c>
       <c r="R21">
-        <v>28.55490821886269</v>
+        <v>273.252203627328</v>
       </c>
       <c r="S21">
-        <v>0.001821821590878257</v>
+        <v>0.001856417684262683</v>
       </c>
       <c r="T21">
-        <v>0.001821821590878257</v>
+        <v>0.001856417684262683</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.090369067705</v>
+        <v>13.362402</v>
       </c>
       <c r="H22">
-        <v>12.090369067705</v>
+        <v>40.087206</v>
       </c>
       <c r="I22">
-        <v>0.1347746393549247</v>
+        <v>0.1447114661972582</v>
       </c>
       <c r="J22">
-        <v>0.1347746393549247</v>
+        <v>0.1447114661972582</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N22">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O22">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P22">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q22">
-        <v>518.1667085765661</v>
+        <v>573.3701669720281</v>
       </c>
       <c r="R22">
-        <v>518.1667085765661</v>
+        <v>5160.331502748252</v>
       </c>
       <c r="S22">
-        <v>0.03305937074367906</v>
+        <v>0.03505820092644116</v>
       </c>
       <c r="T22">
-        <v>0.03305937074367906</v>
+        <v>0.03505820092644116</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.090369067705</v>
+        <v>13.362402</v>
       </c>
       <c r="H23">
-        <v>12.090369067705</v>
+        <v>40.087206</v>
       </c>
       <c r="I23">
-        <v>0.1347746393549247</v>
+        <v>0.1447114661972582</v>
       </c>
       <c r="J23">
-        <v>0.1347746393549247</v>
+        <v>0.1447114661972582</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N23">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O23">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P23">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q23">
-        <v>645.1355534089166</v>
+        <v>713.0373689096001</v>
       </c>
       <c r="R23">
-        <v>645.1355534089166</v>
+        <v>6417.336320186401</v>
       </c>
       <c r="S23">
-        <v>0.04116006506605292</v>
+        <v>0.04359802582563252</v>
       </c>
       <c r="T23">
-        <v>0.04116006506605292</v>
+        <v>0.04359802582563252</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.090369067705</v>
+        <v>13.362402</v>
       </c>
       <c r="H24">
-        <v>12.090369067705</v>
+        <v>40.087206</v>
       </c>
       <c r="I24">
-        <v>0.1347746393549247</v>
+        <v>0.1447114661972582</v>
       </c>
       <c r="J24">
-        <v>0.1347746393549247</v>
+        <v>0.1447114661972582</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N24">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O24">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P24">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q24">
-        <v>472.7013774433273</v>
+        <v>534.2537439314621</v>
       </c>
       <c r="R24">
-        <v>472.7013774433273</v>
+        <v>4808.283695383158</v>
       </c>
       <c r="S24">
-        <v>0.03015865324670428</v>
+        <v>0.03266646257402225</v>
       </c>
       <c r="T24">
-        <v>0.03015865324670428</v>
+        <v>0.03266646257402224</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.090369067705</v>
+        <v>13.362402</v>
       </c>
       <c r="H25">
-        <v>12.090369067705</v>
+        <v>40.087206</v>
       </c>
       <c r="I25">
-        <v>0.1347746393549247</v>
+        <v>0.1447114661972582</v>
       </c>
       <c r="J25">
-        <v>0.1347746393549247</v>
+        <v>0.1447114661972582</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N25">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O25">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P25">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q25">
-        <v>401.8300860758414</v>
+        <v>459.5525049786521</v>
       </c>
       <c r="R25">
-        <v>401.8300860758414</v>
+        <v>4135.972544807868</v>
       </c>
       <c r="S25">
-        <v>0.02563701907449499</v>
+        <v>0.02809892279689696</v>
       </c>
       <c r="T25">
-        <v>0.02563701907449499</v>
+        <v>0.02809892279689696</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>12.090369067705</v>
+        <v>13.362402</v>
       </c>
       <c r="H26">
-        <v>12.090369067705</v>
+        <v>40.087206</v>
       </c>
       <c r="I26">
-        <v>0.1347746393549247</v>
+        <v>0.1447114661972582</v>
       </c>
       <c r="J26">
-        <v>0.1347746393549247</v>
+        <v>0.1447114661972582</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N26">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O26">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P26">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q26">
-        <v>74.60004752738998</v>
+        <v>86.51455105135202</v>
       </c>
       <c r="R26">
-        <v>74.60004752738998</v>
+        <v>778.6309594621681</v>
       </c>
       <c r="S26">
-        <v>0.004759531223993417</v>
+        <v>0.005289854074265286</v>
       </c>
       <c r="T26">
-        <v>0.004759531223993417</v>
+        <v>0.005289854074265286</v>
       </c>
     </row>
   </sheetData>
